--- a/Projects/blubbi90/StandardOperatingProcedureLayout/Datasets/codebooks/2. Anguss.xlsx
+++ b/Projects/blubbi90/StandardOperatingProcedureLayout/Datasets/codebooks/2. Anguss.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
   <si>
     <t xml:space="preserve">Section</t>
   </si>
   <si>
-    <t xml:space="preserve">Table ID</t>
+    <t xml:space="preserve">Table_ID [Anguss_tool]</t>
   </si>
   <si>
     <t xml:space="preserve">String</t>
@@ -40,7 +40,37 @@
     <t xml:space="preserve">Hände</t>
   </si>
   <si>
-    <t xml:space="preserve">Bearbeiten Außenseite:- Anguss Ansatz [Anguss Notiz] entfernen.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bearbeiten Außenseite:- Anguss Ansatz [</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Anguss_note</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">] entfernen.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">-</t>
@@ -55,9 +85,6 @@
     <t xml:space="preserve">Hammer &amp; Stechbeitel</t>
   </si>
   <si>
-    <t xml:space="preserve">Bearbeiten Außenseite:- Anguss Ansatz entfernen[Anguss Notiz].</t>
-  </si>
-  <si>
     <t xml:space="preserve">Seitenschneider (pneumatisch)</t>
   </si>
   <si>
@@ -79,10 +106,7 @@
     <t xml:space="preserve">Ablauf</t>
   </si>
   <si>
-    <t xml:space="preserve">Anguss_image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Image Anguss]</t>
+    <t xml:space="preserve">[Image_anguss]</t>
   </si>
 </sst>
 </file>
@@ -92,7 +116,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +154,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -180,24 +212,36 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="5" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="3" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -393,196 +437,196 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="60.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="60.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="36.42"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="0" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="0" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="2"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="2"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="3"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="4"/>
+      <c r="E18" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
